--- a/biology/Neurosciences/Récepteur_synaptique/Récepteur_synaptique.xlsx
+++ b/biology/Neurosciences/Récepteur_synaptique/Récepteur_synaptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_synaptique</t>
+          <t>Récepteur_synaptique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un récepteur synaptique est une protéine réceptrice participant à la transmission synaptique entre les neurones.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_synaptique</t>
+          <t>Récepteur_synaptique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanique moléculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activité, du récepteur synaptique est déterminée par la fixation d'un neuromédiateur sur son site récepteur ce qui entraîne un changement de la perméabilité membranaire pour certaines catégories de molécules. 
 Les récepteurs peuvent être post synaptiques ou présynaptiques, dans ce dernier cas on les appelle autorécepteurs. Les autorécepteurs ont pour fonction de pouvoir moduler la quantité de neuromédiateur actif dans la fente synaptique en les recapturant.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_synaptique</t>
+          <t>Récepteur_synaptique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Types de récepteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe des récepteurs canaux ionotropes, dont la fixation du neuromédiateur sur le site récepteur entraîne une modification de sa configuration tridimensionnelle ce qui entraîne l'ouverture du canal ionique. Ce qui a pour conséquence en principe l'entrée de Na+ dans la cellule car la plupart des canaux ioniques sont des canaux à Na+.
 Exemple : Certains récepteurs cholinergiques comme les récepteurs nicotiniques, les récepteurs sérotoninergiques, les récepteurs au GABA de type A ainsi que certains récepteurs à la sérotonine tel que le 5-HT3 ou encore le récepteur à la NMDA sensible au glutamate.
